--- a/doc/Book1.xlsx
+++ b/doc/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spyros/Documents/GitHub/arch2-2019-cw-VisUAL2NeverForget/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD30A56-33E8-0949-B2D8-88AE385F8787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E28D47-7AF4-6144-9716-478041501587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{56E0FCF0-E34E-3E4D-9C25-CF425B6A730D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="109">
   <si>
     <t xml:space="preserve">TestId </t>
   </si>
@@ -154,6 +154,210 @@
   </si>
   <si>
     <t>Branch_at_zero</t>
+  </si>
+  <si>
+    <t>bltz0</t>
+  </si>
+  <si>
+    <t>bltz1</t>
+  </si>
+  <si>
+    <t>bltz2</t>
+  </si>
+  <si>
+    <t>bltz</t>
+  </si>
+  <si>
+    <t>bgtz0</t>
+  </si>
+  <si>
+    <t>bgtz1</t>
+  </si>
+  <si>
+    <t>bgtz2</t>
+  </si>
+  <si>
+    <t>bgtz</t>
+  </si>
+  <si>
+    <t>Not_branch_at_zero</t>
+  </si>
+  <si>
+    <t>Not_branch_at_negative</t>
+  </si>
+  <si>
+    <t>Not_branch_at_positive</t>
+  </si>
+  <si>
+    <t>blez</t>
+  </si>
+  <si>
+    <t>blez0</t>
+  </si>
+  <si>
+    <t>blez1</t>
+  </si>
+  <si>
+    <t>blez2</t>
+  </si>
+  <si>
+    <t>Branch_at_negative</t>
+  </si>
+  <si>
+    <t>bne0</t>
+  </si>
+  <si>
+    <t>bne1</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>bgezal0</t>
+  </si>
+  <si>
+    <t>bgezal1</t>
+  </si>
+  <si>
+    <t>bgezal2</t>
+  </si>
+  <si>
+    <t>bgezal3</t>
+  </si>
+  <si>
+    <t>bgezal</t>
+  </si>
+  <si>
+    <t>Link_in_no_branch</t>
+  </si>
+  <si>
+    <t>bltzal0</t>
+  </si>
+  <si>
+    <t>bltzal1</t>
+  </si>
+  <si>
+    <t>bltzal2</t>
+  </si>
+  <si>
+    <t>bltzal3</t>
+  </si>
+  <si>
+    <t>bltzal</t>
+  </si>
+  <si>
+    <t>lui0</t>
+  </si>
+  <si>
+    <t>lui1</t>
+  </si>
+  <si>
+    <t>lui2</t>
+  </si>
+  <si>
+    <t>lui3</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>andi0</t>
+  </si>
+  <si>
+    <t>ori0</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>Simple_ori</t>
+  </si>
+  <si>
+    <t>Lui_7:0</t>
+  </si>
+  <si>
+    <t>Lui_15:8</t>
+  </si>
+  <si>
+    <t>Lui_23:16</t>
+  </si>
+  <si>
+    <t>Lui_31:24</t>
+  </si>
+  <si>
+    <t>xori0</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>Simple_xori</t>
+  </si>
+  <si>
+    <t>slti0</t>
+  </si>
+  <si>
+    <t>slti1</t>
+  </si>
+  <si>
+    <t>slti2</t>
+  </si>
+  <si>
+    <t>slti3</t>
+  </si>
+  <si>
+    <t>slti4</t>
+  </si>
+  <si>
+    <t>slti5</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>Negative_comparison</t>
+  </si>
+  <si>
+    <t>Signed_comparison_neg_pos</t>
+  </si>
+  <si>
+    <t>Signed_comparison_pos_neg</t>
+  </si>
+  <si>
+    <t>Smaller</t>
+  </si>
+  <si>
+    <t>Greater</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>sltiu0</t>
+  </si>
+  <si>
+    <t>sltiu1</t>
+  </si>
+  <si>
+    <t>sltiu2</t>
+  </si>
+  <si>
+    <t>sltiu3</t>
+  </si>
+  <si>
+    <t>sltiu4</t>
+  </si>
+  <si>
+    <t>sltiu5</t>
+  </si>
+  <si>
+    <t>sltiu</t>
+  </si>
+  <si>
+    <t>Unsigned_comparison_neg_pos</t>
+  </si>
+  <si>
+    <t>Unsigned_comparison_pos_neg</t>
   </si>
 </sst>
 </file>
@@ -511,16 +715,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE635C42-1F45-2741-9DF1-CFC2F289DD75}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -684,7 +888,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -791,102 +995,761 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>231</v>
+      </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>241</v>
+      </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>231</v>
+      </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>241</v>
+      </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>241</v>
+      </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
       <c r="D32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
       <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>204</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39">
+        <v>253</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
         <v>5</v>
       </c>
     </row>

--- a/doc/Book1.xlsx
+++ b/doc/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spyros/Documents/GitHub/arch2-2019-cw-VisUAL2NeverForget/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E28D47-7AF4-6144-9716-478041501587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB098C8-D26F-7444-BFDC-7B0FA8242D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{56E0FCF0-E34E-3E4D-9C25-CF425B6A730D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="222">
   <si>
     <t xml:space="preserve">TestId </t>
   </si>
@@ -358,6 +358,345 @@
   </si>
   <si>
     <t>Unsigned_comparison_pos_neg</t>
+  </si>
+  <si>
+    <t>lb0</t>
+  </si>
+  <si>
+    <t>lb1</t>
+  </si>
+  <si>
+    <t>lb2</t>
+  </si>
+  <si>
+    <t>lb3</t>
+  </si>
+  <si>
+    <t>lb4</t>
+  </si>
+  <si>
+    <t>lb5</t>
+  </si>
+  <si>
+    <t>lb6</t>
+  </si>
+  <si>
+    <t>lb7</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>Location_out_of_range</t>
+  </si>
+  <si>
+    <t>Write_only_location</t>
+  </si>
+  <si>
+    <t>lb_31:24</t>
+  </si>
+  <si>
+    <t>lb_15:8</t>
+  </si>
+  <si>
+    <t>lb_7:0</t>
+  </si>
+  <si>
+    <t>Check_for_sign_extension</t>
+  </si>
+  <si>
+    <t>Check_for_no_sign_extension</t>
+  </si>
+  <si>
+    <t>lb_23:16</t>
+  </si>
+  <si>
+    <t>lbu0</t>
+  </si>
+  <si>
+    <t>lbu1</t>
+  </si>
+  <si>
+    <t>lbu2</t>
+  </si>
+  <si>
+    <t>lbu3</t>
+  </si>
+  <si>
+    <t>lbu4</t>
+  </si>
+  <si>
+    <t>lbu5</t>
+  </si>
+  <si>
+    <t>lbu6</t>
+  </si>
+  <si>
+    <t>lbu7</t>
+  </si>
+  <si>
+    <t>lbu</t>
+  </si>
+  <si>
+    <t>lbu_31:24</t>
+  </si>
+  <si>
+    <t>lbu_23:16</t>
+  </si>
+  <si>
+    <t>lbu_15:8</t>
+  </si>
+  <si>
+    <t>lbu_7:0</t>
+  </si>
+  <si>
+    <t>lh0</t>
+  </si>
+  <si>
+    <t>lh1</t>
+  </si>
+  <si>
+    <t>lh2</t>
+  </si>
+  <si>
+    <t>lh3</t>
+  </si>
+  <si>
+    <t>lh4</t>
+  </si>
+  <si>
+    <t>lh5</t>
+  </si>
+  <si>
+    <t>lh6</t>
+  </si>
+  <si>
+    <t>lh7</t>
+  </si>
+  <si>
+    <t>lh8</t>
+  </si>
+  <si>
+    <t>lh9</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>lh_31:24</t>
+  </si>
+  <si>
+    <t>lh_23:16</t>
+  </si>
+  <si>
+    <t>lh_15:8</t>
+  </si>
+  <si>
+    <t>lh_7:0</t>
+  </si>
+  <si>
+    <t>Unalagined_memory</t>
+  </si>
+  <si>
+    <t>lhu0</t>
+  </si>
+  <si>
+    <t>lhu1</t>
+  </si>
+  <si>
+    <t>lhu2</t>
+  </si>
+  <si>
+    <t>lhu3</t>
+  </si>
+  <si>
+    <t>lhu4</t>
+  </si>
+  <si>
+    <t>lhu5</t>
+  </si>
+  <si>
+    <t>lhu6</t>
+  </si>
+  <si>
+    <t>lhu7</t>
+  </si>
+  <si>
+    <t>lhu8</t>
+  </si>
+  <si>
+    <t>lhu9</t>
+  </si>
+  <si>
+    <t>lhu</t>
+  </si>
+  <si>
+    <t>lhu_31:24</t>
+  </si>
+  <si>
+    <t>lhu_23:16</t>
+  </si>
+  <si>
+    <t>lhu_15:8</t>
+  </si>
+  <si>
+    <t>lhu_7:0</t>
+  </si>
+  <si>
+    <t>lw0</t>
+  </si>
+  <si>
+    <t>lw1</t>
+  </si>
+  <si>
+    <t>lw2</t>
+  </si>
+  <si>
+    <t>lw3</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>lw_31:24</t>
+  </si>
+  <si>
+    <t>lw_23:16</t>
+  </si>
+  <si>
+    <t>lw_15:8</t>
+  </si>
+  <si>
+    <t>lw_7:0</t>
+  </si>
+  <si>
+    <t>lw4</t>
+  </si>
+  <si>
+    <t>lw5</t>
+  </si>
+  <si>
+    <t>lw6</t>
+  </si>
+  <si>
+    <t>lw7</t>
+  </si>
+  <si>
+    <t>lw8</t>
+  </si>
+  <si>
+    <t>lw9</t>
+  </si>
+  <si>
+    <t>Load_from_instruction_memory</t>
+  </si>
+  <si>
+    <t>lwl0</t>
+  </si>
+  <si>
+    <t>lwl1</t>
+  </si>
+  <si>
+    <t>lwl2</t>
+  </si>
+  <si>
+    <t>lwl3</t>
+  </si>
+  <si>
+    <t>lwl4</t>
+  </si>
+  <si>
+    <t>lwl5</t>
+  </si>
+  <si>
+    <t>lwl6</t>
+  </si>
+  <si>
+    <t>lwl7</t>
+  </si>
+  <si>
+    <t>lwl8</t>
+  </si>
+  <si>
+    <t>lwl9</t>
+  </si>
+  <si>
+    <t>lwl10</t>
+  </si>
+  <si>
+    <t>lwl11</t>
+  </si>
+  <si>
+    <t>lwl12</t>
+  </si>
+  <si>
+    <t>lwl13</t>
+  </si>
+  <si>
+    <t>lwl14</t>
+  </si>
+  <si>
+    <t>lwl15</t>
+  </si>
+  <si>
+    <t>lwl16</t>
+  </si>
+  <si>
+    <t>lwl17</t>
+  </si>
+  <si>
+    <t>lwl18</t>
+  </si>
+  <si>
+    <t>lwl</t>
+  </si>
+  <si>
+    <t>lwl0_7:0</t>
+  </si>
+  <si>
+    <t>lwl0_15:8</t>
+  </si>
+  <si>
+    <t>lwl0_23:16</t>
+  </si>
+  <si>
+    <t>lwl0_31:17</t>
+  </si>
+  <si>
+    <t>lwl1_7:0</t>
+  </si>
+  <si>
+    <t>lwl1_15:8</t>
+  </si>
+  <si>
+    <t>lwl1_23:16</t>
+  </si>
+  <si>
+    <t>lwl1_31:17</t>
+  </si>
+  <si>
+    <t>lwl2_7:0</t>
+  </si>
+  <si>
+    <t>lwl2_15:8</t>
+  </si>
+  <si>
+    <t>lwl2_23:16</t>
+  </si>
+  <si>
+    <t>lwl2_31:17</t>
+  </si>
+  <si>
+    <t>lwl3_7:0</t>
+  </si>
+  <si>
+    <t>lwl3_15:8</t>
+  </si>
+  <si>
+    <t>lwl3_23:16</t>
+  </si>
+  <si>
+    <t>lwl3_31:17</t>
   </si>
 </sst>
 </file>
@@ -715,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE635C42-1F45-2741-9DF1-CFC2F289DD75}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1624,132 +1963,1554 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53">
+        <v>160</v>
+      </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54">
+        <v>112</v>
+      </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
+      <c r="E54" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55">
+        <v>204</v>
+      </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
+      <c r="E55" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56">
+        <v>221</v>
+      </c>
       <c r="D56" t="s">
         <v>5</v>
       </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57">
+        <v>250</v>
+      </c>
       <c r="D57" t="s">
         <v>5</v>
       </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
+      <c r="E58" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59">
+        <v>245</v>
+      </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60">
+        <v>245</v>
+      </c>
       <c r="D60" t="s">
         <v>5</v>
       </c>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61">
+        <v>160</v>
+      </c>
       <c r="D61" t="s">
         <v>5</v>
       </c>
+      <c r="E61" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62">
+        <v>112</v>
+      </c>
       <c r="D62" t="s">
         <v>5</v>
       </c>
+      <c r="E62" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63">
+        <v>204</v>
+      </c>
       <c r="D63" t="s">
         <v>5</v>
       </c>
+      <c r="E63" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64">
+        <v>221</v>
+      </c>
       <c r="D64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
       <c r="D65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
       <c r="D66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67">
+        <v>245</v>
+      </c>
       <c r="D67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68">
+        <v>245</v>
+      </c>
       <c r="D68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69">
+        <v>160</v>
+      </c>
       <c r="D69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70">
+        <v>187</v>
+      </c>
       <c r="D70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71">
+        <v>112</v>
+      </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72">
+        <v>221</v>
+      </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73">
+        <v>245</v>
+      </c>
       <c r="D73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74">
+        <v>245</v>
+      </c>
       <c r="D74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75">
+        <v>250</v>
+      </c>
       <c r="D75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
       <c r="D76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77">
+        <v>245</v>
+      </c>
       <c r="D77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78">
+        <v>245</v>
+      </c>
       <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79">
+        <v>160</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80">
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82">
+        <v>221</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83">
+        <v>245</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84">
+        <v>245</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87">
+        <v>245</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88">
+        <v>245</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89">
+        <v>170</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90">
+        <v>187</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91">
+        <v>204</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92">
+        <v>221</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93">
+        <v>245</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94">
+        <v>245</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95">
+        <v>245</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96">
+        <v>245</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97">
+        <v>245</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98">
+        <v>221</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99">
+        <v>170</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100">
+        <v>187</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102">
+        <v>221</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103">
+        <v>187</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104">
+        <v>204</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105">
+        <v>221</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>193</v>
+      </c>
+      <c r="B106" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106">
+        <v>238</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108">
+        <v>221</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109">
+        <v>238</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110">
+        <v>238</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111">
+        <v>221</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112">
+        <v>238</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113">
+        <v>238</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114">
+        <v>238</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" t="s">
+        <v>205</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" t="s">
+        <v>205</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" t="s">
+        <v>205</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D210" t="s">
         <v>5</v>
       </c>
     </row>

--- a/doc/Book1.xlsx
+++ b/doc/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spyros/Documents/GitHub/arch2-2019-cw-VisUAL2NeverForget/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB098C8-D26F-7444-BFDC-7B0FA8242D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B11A9E8-A634-AD4D-B8D8-31E230B16881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{56E0FCF0-E34E-3E4D-9C25-CF425B6A730D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="238">
   <si>
     <t xml:space="preserve">TestId </t>
   </si>
@@ -697,6 +697,54 @@
   </si>
   <si>
     <t>lwl3_31:17</t>
+  </si>
+  <si>
+    <t>lwr0_7:0</t>
+  </si>
+  <si>
+    <t>lwr0_15:8</t>
+  </si>
+  <si>
+    <t>lwr0_23:16</t>
+  </si>
+  <si>
+    <t>lwr0_31:17</t>
+  </si>
+  <si>
+    <t>lwr1_7:0</t>
+  </si>
+  <si>
+    <t>lwr1_15:8</t>
+  </si>
+  <si>
+    <t>lwr1_23:16</t>
+  </si>
+  <si>
+    <t>lwr1_31:17</t>
+  </si>
+  <si>
+    <t>lwr2_7:0</t>
+  </si>
+  <si>
+    <t>lwr2_15:8</t>
+  </si>
+  <si>
+    <t>lwr2_23:16</t>
+  </si>
+  <si>
+    <t>lwr2_31:17</t>
+  </si>
+  <si>
+    <t>lwr3_7:0</t>
+  </si>
+  <si>
+    <t>lwr3_15:8</t>
+  </si>
+  <si>
+    <t>lwr3_23:16</t>
+  </si>
+  <si>
+    <t>lwr3_31:17</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE635C42-1F45-2741-9DF1-CFC2F289DD75}">
   <dimension ref="A1:P210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3023,8 +3071,14 @@
       <c r="B115" t="s">
         <v>205</v>
       </c>
+      <c r="C115">
+        <v>245</v>
+      </c>
       <c r="D115" t="s">
         <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3034,8 +3088,14 @@
       <c r="B116" t="s">
         <v>205</v>
       </c>
+      <c r="C116">
+        <v>245</v>
+      </c>
       <c r="D116" t="s">
         <v>5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3045,141 +3105,375 @@
       <c r="B117" t="s">
         <v>205</v>
       </c>
+      <c r="C117">
+        <v>221</v>
+      </c>
       <c r="D117" t="s">
         <v>5</v>
       </c>
+      <c r="E117" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>186</v>
+      </c>
+      <c r="B118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118">
+        <v>238</v>
+      </c>
       <c r="D118" t="s">
         <v>5</v>
       </c>
+      <c r="E118" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>187</v>
+      </c>
+      <c r="B119" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119">
+        <v>238</v>
+      </c>
       <c r="D119" t="s">
         <v>5</v>
       </c>
+      <c r="E119" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" t="s">
+        <v>205</v>
+      </c>
+      <c r="C120">
+        <v>238</v>
+      </c>
       <c r="D120" t="s">
         <v>5</v>
       </c>
+      <c r="E120" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>189</v>
+      </c>
+      <c r="B121" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121">
+        <v>170</v>
+      </c>
       <c r="D121" t="s">
         <v>5</v>
       </c>
+      <c r="E121" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" t="s">
+        <v>205</v>
+      </c>
+      <c r="C122">
+        <v>187</v>
+      </c>
       <c r="D122" t="s">
         <v>5</v>
       </c>
+      <c r="E122" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>191</v>
+      </c>
+      <c r="B123" t="s">
+        <v>205</v>
+      </c>
+      <c r="C123">
+        <v>204</v>
+      </c>
       <c r="D123" t="s">
         <v>5</v>
       </c>
+      <c r="E123" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" t="s">
+        <v>205</v>
+      </c>
+      <c r="C124">
+        <v>221</v>
+      </c>
       <c r="D124" t="s">
         <v>5</v>
       </c>
+      <c r="E124" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125">
+        <v>238</v>
+      </c>
       <c r="D125" t="s">
         <v>5</v>
       </c>
+      <c r="E125" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>194</v>
+      </c>
+      <c r="B126" t="s">
+        <v>205</v>
+      </c>
+      <c r="C126">
+        <v>204</v>
+      </c>
       <c r="D126" t="s">
         <v>5</v>
       </c>
+      <c r="E126" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>195</v>
+      </c>
+      <c r="B127" t="s">
+        <v>205</v>
+      </c>
+      <c r="C127">
+        <v>221</v>
+      </c>
       <c r="D127" t="s">
         <v>5</v>
       </c>
+      <c r="E127" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>196</v>
+      </c>
+      <c r="B128" t="s">
+        <v>205</v>
+      </c>
+      <c r="C128">
+        <v>238</v>
+      </c>
       <c r="D128" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E128" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>197</v>
+      </c>
+      <c r="B129" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129">
+        <v>238</v>
+      </c>
       <c r="D129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E129" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>198</v>
+      </c>
+      <c r="B130" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130">
+        <v>221</v>
+      </c>
       <c r="D130" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E130" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>199</v>
+      </c>
+      <c r="B131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131">
+        <v>238</v>
+      </c>
       <c r="D131" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E131" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" t="s">
+        <v>205</v>
+      </c>
+      <c r="C132">
+        <v>238</v>
+      </c>
       <c r="D132" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E132" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>201</v>
+      </c>
+      <c r="B133" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133">
+        <v>238</v>
+      </c>
       <c r="D133" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>202</v>
+      </c>
+      <c r="B134" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134">
+        <v>245</v>
+      </c>
       <c r="D134" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E134" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" t="s">
+        <v>205</v>
+      </c>
+      <c r="C135">
+        <v>245</v>
+      </c>
       <c r="D135" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>204</v>
+      </c>
+      <c r="B136" t="s">
+        <v>205</v>
+      </c>
+      <c r="C136">
+        <v>221</v>
+      </c>
       <c r="D136" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
         <v>5</v>
       </c>

--- a/doc/Book1.xlsx
+++ b/doc/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spyros/Documents/GitHub/arch2-2019-cw-VisUAL2NeverForget/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B11A9E8-A634-AD4D-B8D8-31E230B16881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F18094D-7D08-984F-997A-A5911E49A501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" xr2:uid="{56E0FCF0-E34E-3E4D-9C25-CF425B6A730D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="297">
   <si>
     <t xml:space="preserve">TestId </t>
   </si>
@@ -495,9 +495,6 @@
     <t>lh_7:0</t>
   </si>
   <si>
-    <t>Unalagined_memory</t>
-  </si>
-  <si>
     <t>lhu0</t>
   </si>
   <si>
@@ -660,21 +657,12 @@
     <t>lwl0_23:16</t>
   </si>
   <si>
-    <t>lwl0_31:17</t>
-  </si>
-  <si>
     <t>lwl1_7:0</t>
   </si>
   <si>
-    <t>lwl1_15:8</t>
-  </si>
-  <si>
     <t>lwl1_23:16</t>
   </si>
   <si>
-    <t>lwl1_31:17</t>
-  </si>
-  <si>
     <t>lwl2_7:0</t>
   </si>
   <si>
@@ -684,9 +672,6 @@
     <t>lwl2_23:16</t>
   </si>
   <si>
-    <t>lwl2_31:17</t>
-  </si>
-  <si>
     <t>lwl3_7:0</t>
   </si>
   <si>
@@ -696,9 +681,6 @@
     <t>lwl3_23:16</t>
   </si>
   <si>
-    <t>lwl3_31:17</t>
-  </si>
-  <si>
     <t>lwr0_7:0</t>
   </si>
   <si>
@@ -708,21 +690,12 @@
     <t>lwr0_23:16</t>
   </si>
   <si>
-    <t>lwr0_31:17</t>
-  </si>
-  <si>
     <t>lwr1_7:0</t>
   </si>
   <si>
-    <t>lwr1_15:8</t>
-  </si>
-  <si>
     <t>lwr1_23:16</t>
   </si>
   <si>
-    <t>lwr1_31:17</t>
-  </si>
-  <si>
     <t>lwr2_7:0</t>
   </si>
   <si>
@@ -732,9 +705,6 @@
     <t>lwr2_23:16</t>
   </si>
   <si>
-    <t>lwr2_31:17</t>
-  </si>
-  <si>
     <t>lwr3_7:0</t>
   </si>
   <si>
@@ -744,7 +714,214 @@
     <t>lwr3_23:16</t>
   </si>
   <si>
-    <t>lwr3_31:17</t>
+    <t>lwr0</t>
+  </si>
+  <si>
+    <t>lwr1</t>
+  </si>
+  <si>
+    <t>lwr2</t>
+  </si>
+  <si>
+    <t>lwr3</t>
+  </si>
+  <si>
+    <t>lwr4</t>
+  </si>
+  <si>
+    <t>lwr5</t>
+  </si>
+  <si>
+    <t>lwr6</t>
+  </si>
+  <si>
+    <t>lwr7</t>
+  </si>
+  <si>
+    <t>lwr8</t>
+  </si>
+  <si>
+    <t>lwr9</t>
+  </si>
+  <si>
+    <t>lwr10</t>
+  </si>
+  <si>
+    <t>lwr11</t>
+  </si>
+  <si>
+    <t>lwr12</t>
+  </si>
+  <si>
+    <t>lwr13</t>
+  </si>
+  <si>
+    <t>lwr14</t>
+  </si>
+  <si>
+    <t>lwr15</t>
+  </si>
+  <si>
+    <t>lwr16</t>
+  </si>
+  <si>
+    <t>lwr17</t>
+  </si>
+  <si>
+    <t>lwr18</t>
+  </si>
+  <si>
+    <t>lwr</t>
+  </si>
+  <si>
+    <t>sb0</t>
+  </si>
+  <si>
+    <t>sb1</t>
+  </si>
+  <si>
+    <t>sb2</t>
+  </si>
+  <si>
+    <t>sb3</t>
+  </si>
+  <si>
+    <t>sb4</t>
+  </si>
+  <si>
+    <t>sb5</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>sb_31:24</t>
+  </si>
+  <si>
+    <t>sb_23:16</t>
+  </si>
+  <si>
+    <t>sb_15:8</t>
+  </si>
+  <si>
+    <t>sb_7:0</t>
+  </si>
+  <si>
+    <t>Read_only_location</t>
+  </si>
+  <si>
+    <t>lwl1_15:9</t>
+  </si>
+  <si>
+    <t>lwl0_31:24</t>
+  </si>
+  <si>
+    <t>lwl1_31:24</t>
+  </si>
+  <si>
+    <t>lwl2_31:24</t>
+  </si>
+  <si>
+    <t>lwl3_31:24</t>
+  </si>
+  <si>
+    <t>lwr3_31:24</t>
+  </si>
+  <si>
+    <t>lwr2_31:24</t>
+  </si>
+  <si>
+    <t>lwr1_15:9</t>
+  </si>
+  <si>
+    <t>lwr1_31:24</t>
+  </si>
+  <si>
+    <t>lwr0_31:24</t>
+  </si>
+  <si>
+    <t>sh0</t>
+  </si>
+  <si>
+    <t>sh1</t>
+  </si>
+  <si>
+    <t>sh2</t>
+  </si>
+  <si>
+    <t>sh3</t>
+  </si>
+  <si>
+    <t>sh4</t>
+  </si>
+  <si>
+    <t>sh5</t>
+  </si>
+  <si>
+    <t>sh6</t>
+  </si>
+  <si>
+    <t>sh7</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>sh_31:24</t>
+  </si>
+  <si>
+    <t>sh_23:16</t>
+  </si>
+  <si>
+    <t>sh_15:8</t>
+  </si>
+  <si>
+    <t>sh_7:0</t>
+  </si>
+  <si>
+    <t>Unaligned_memory</t>
+  </si>
+  <si>
+    <t>sw0</t>
+  </si>
+  <si>
+    <t>sw1</t>
+  </si>
+  <si>
+    <t>sw2</t>
+  </si>
+  <si>
+    <t>sw3</t>
+  </si>
+  <si>
+    <t>sw4</t>
+  </si>
+  <si>
+    <t>sw5</t>
+  </si>
+  <si>
+    <t>sw6</t>
+  </si>
+  <si>
+    <t>sw7</t>
+  </si>
+  <si>
+    <t>sw8</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>sw_31:24</t>
+  </si>
+  <si>
+    <t>sw_23:16</t>
+  </si>
+  <si>
+    <t>sw_15:8</t>
+  </si>
+  <si>
+    <t>sw_7:0</t>
   </si>
 </sst>
 </file>
@@ -1102,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE635C42-1F45-2741-9DF1-CFC2F289DD75}">
-  <dimension ref="A1:P210"/>
+  <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160:D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2364,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2381,7 +2558,7 @@
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2454,10 +2631,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C79">
         <v>160</v>
@@ -2466,15 +2643,15 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C80">
         <v>187</v>
@@ -2483,15 +2660,15 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C81">
         <v>112</v>
@@ -2500,15 +2677,15 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C82">
         <v>221</v>
@@ -2517,15 +2694,15 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83">
         <v>245</v>
@@ -2534,15 +2711,15 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84">
         <v>245</v>
@@ -2551,15 +2728,15 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85">
         <v>10</v>
@@ -2573,10 +2750,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C86">
         <v>7</v>
@@ -2590,10 +2767,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87">
         <v>245</v>
@@ -2607,10 +2784,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" t="s">
         <v>164</v>
-      </c>
-      <c r="B88" t="s">
-        <v>165</v>
       </c>
       <c r="C88">
         <v>245</v>
@@ -2624,10 +2801,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C89">
         <v>170</v>
@@ -2636,15 +2813,15 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90">
         <v>187</v>
@@ -2653,15 +2830,15 @@
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C91">
         <v>204</v>
@@ -2670,15 +2847,15 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" t="s">
         <v>173</v>
-      </c>
-      <c r="B92" t="s">
-        <v>174</v>
       </c>
       <c r="C92">
         <v>221</v>
@@ -2687,15 +2864,15 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93">
         <v>245</v>
@@ -2704,15 +2881,15 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C94">
         <v>245</v>
@@ -2721,15 +2898,15 @@
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C95">
         <v>245</v>
@@ -2738,15 +2915,15 @@
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C96">
         <v>245</v>
@@ -2760,10 +2937,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C97">
         <v>245</v>
@@ -2777,10 +2954,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98">
         <v>221</v>
@@ -2789,15 +2966,15 @@
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C99">
         <v>170</v>
@@ -2806,15 +2983,15 @@
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C100">
         <v>187</v>
@@ -2828,10 +3005,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C101">
         <v>204</v>
@@ -2840,15 +3017,15 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C102">
         <v>221</v>
@@ -2857,15 +3034,15 @@
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C103">
         <v>187</v>
@@ -2874,15 +3051,15 @@
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C104">
         <v>204</v>
@@ -2891,15 +3068,15 @@
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C105">
         <v>221</v>
@@ -2908,15 +3085,15 @@
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C106">
         <v>238</v>
@@ -2925,15 +3102,15 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C107">
         <v>204</v>
@@ -2942,15 +3119,15 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C108">
         <v>221</v>
@@ -2959,15 +3136,15 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C109">
         <v>238</v>
@@ -2976,15 +3153,15 @@
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C110">
         <v>238</v>
@@ -2993,15 +3170,15 @@
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C111">
         <v>221</v>
@@ -3010,15 +3187,15 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C112">
         <v>238</v>
@@ -3027,15 +3204,15 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B113" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C113">
         <v>238</v>
@@ -3044,15 +3221,15 @@
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C114">
         <v>238</v>
@@ -3061,15 +3238,15 @@
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C115">
         <v>245</v>
@@ -3083,10 +3260,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C116">
         <v>245</v>
@@ -3100,10 +3277,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" t="s">
         <v>204</v>
-      </c>
-      <c r="B117" t="s">
-        <v>205</v>
       </c>
       <c r="C117">
         <v>221</v>
@@ -3112,15 +3289,15 @@
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C118">
         <v>238</v>
@@ -3129,15 +3306,15 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C119">
         <v>238</v>
@@ -3146,15 +3323,15 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C120">
         <v>238</v>
@@ -3163,15 +3340,15 @@
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C121">
         <v>170</v>
@@ -3180,15 +3357,15 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="B122" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C122">
         <v>187</v>
@@ -3197,15 +3374,15 @@
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C123">
         <v>204</v>
@@ -3214,15 +3391,15 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C124">
         <v>221</v>
@@ -3231,15 +3408,15 @@
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="B125" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C125">
         <v>238</v>
@@ -3248,15 +3425,15 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C126">
         <v>204</v>
@@ -3265,15 +3442,15 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C127">
         <v>221</v>
@@ -3282,15 +3459,15 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="B128" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C128">
         <v>238</v>
@@ -3299,15 +3476,15 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="B129" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C129">
         <v>238</v>
@@ -3316,15 +3493,15 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C130">
         <v>221</v>
@@ -3333,15 +3510,15 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="B131" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C131">
         <v>238</v>
@@ -3350,15 +3527,15 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="B132" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C132">
         <v>238</v>
@@ -3367,15 +3544,15 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C133">
         <v>238</v>
@@ -3384,15 +3561,15 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C134">
         <v>245</v>
@@ -3406,10 +3583,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="B135" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C135">
         <v>245</v>
@@ -3423,389 +3600,410 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>245</v>
+      </c>
+      <c r="B136" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136">
         <v>204</v>
       </c>
-      <c r="B136" t="s">
-        <v>205</v>
-      </c>
-      <c r="C136">
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>247</v>
+      </c>
+      <c r="B137" t="s">
+        <v>253</v>
+      </c>
+      <c r="C137">
+        <v>170</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>248</v>
+      </c>
+      <c r="B138" t="s">
+        <v>253</v>
+      </c>
+      <c r="C138">
+        <v>187</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>249</v>
+      </c>
+      <c r="B139" t="s">
+        <v>253</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" t="s">
+        <v>253</v>
+      </c>
+      <c r="C140">
         <v>221</v>
       </c>
-      <c r="D136" t="s">
-        <v>5</v>
-      </c>
-      <c r="E136" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D137" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D138" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D139" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>5</v>
       </c>
+      <c r="E140" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>251</v>
+      </c>
+      <c r="B141" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141">
+        <v>245</v>
+      </c>
       <c r="D141" t="s">
         <v>5</v>
       </c>
+      <c r="E141" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" t="s">
+        <v>253</v>
+      </c>
+      <c r="C142">
+        <v>245</v>
+      </c>
       <c r="D142" t="s">
         <v>5</v>
       </c>
+      <c r="E142" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143">
+        <v>170</v>
+      </c>
       <c r="D143" t="s">
         <v>5</v>
       </c>
+      <c r="E143" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144" t="s">
+        <v>277</v>
+      </c>
+      <c r="C144">
+        <v>187</v>
+      </c>
       <c r="D144" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E144" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>271</v>
+      </c>
+      <c r="B145" t="s">
+        <v>277</v>
+      </c>
+      <c r="C145">
+        <v>7</v>
+      </c>
       <c r="D145" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E145" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>272</v>
+      </c>
+      <c r="B146" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
       <c r="D146" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E146" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>273</v>
+      </c>
+      <c r="B147" t="s">
+        <v>277</v>
+      </c>
+      <c r="C147">
+        <v>245</v>
+      </c>
       <c r="D147" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E147" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>274</v>
+      </c>
+      <c r="B148" t="s">
+        <v>277</v>
+      </c>
+      <c r="C148">
+        <v>245</v>
+      </c>
       <c r="D148" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E148" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>275</v>
+      </c>
+      <c r="B149" t="s">
+        <v>277</v>
+      </c>
+      <c r="C149">
+        <v>245</v>
+      </c>
       <c r="D149" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E149" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>276</v>
+      </c>
+      <c r="B150" t="s">
+        <v>277</v>
+      </c>
+      <c r="C150">
+        <v>245</v>
+      </c>
       <c r="D150" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E150" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>283</v>
+      </c>
+      <c r="B151" t="s">
+        <v>292</v>
+      </c>
+      <c r="C151">
+        <v>170</v>
+      </c>
       <c r="D151" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E151" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>284</v>
+      </c>
+      <c r="B152" t="s">
+        <v>292</v>
+      </c>
+      <c r="C152">
+        <v>187</v>
+      </c>
       <c r="D152" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E152" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>285</v>
+      </c>
+      <c r="B153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C153">
+        <v>204</v>
+      </c>
       <c r="D153" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E153" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>286</v>
+      </c>
+      <c r="B154" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154">
+        <v>221</v>
+      </c>
       <c r="D154" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E154" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>287</v>
+      </c>
+      <c r="B155" t="s">
+        <v>292</v>
+      </c>
+      <c r="C155">
+        <v>245</v>
+      </c>
       <c r="D155" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E155" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>288</v>
+      </c>
+      <c r="B156" t="s">
+        <v>292</v>
+      </c>
+      <c r="C156">
+        <v>245</v>
+      </c>
       <c r="D156" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>289</v>
+      </c>
+      <c r="B157" t="s">
+        <v>292</v>
+      </c>
+      <c r="C157">
+        <v>245</v>
+      </c>
       <c r="D157" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E157" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>290</v>
+      </c>
+      <c r="B158" t="s">
+        <v>292</v>
+      </c>
+      <c r="C158">
+        <v>245</v>
+      </c>
       <c r="D158" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E158" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>291</v>
+      </c>
+      <c r="B159" t="s">
+        <v>292</v>
+      </c>
+      <c r="C159">
+        <v>245</v>
+      </c>
       <c r="D159" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D160" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D161" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D163" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D164" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D165" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D166" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D167" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D168" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D169" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D170" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D171" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D172" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D173" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D174" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D175" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D176" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D177" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D178" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D179" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D180" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D181" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D182" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D183" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D184" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D185" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D186" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D187" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D188" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D189" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D190" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D191" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D192" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D193" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D194" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D195" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D196" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D197" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D198" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D199" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D200" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D201" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D202" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D203" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D204" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D205" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D206" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D209" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D210" t="s">
-        <v>5</v>
+      <c r="E159" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
